--- a/Manjunath(SW)/Manjunath(SW).xlsx
+++ b/Manjunath(SW)/Manjunath(SW).xlsx
@@ -10,12 +10,12 @@
     <sheet name="Version" sheetId="2" r:id="rId1"/>
     <sheet name="Tasks" sheetId="1" r:id="rId2"/>
     <sheet name="UserGuid" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Chandrayan_3" localSheetId="1">Tasks!$W$2:$W$14</definedName>
-    <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Tasks!$X$2:$X$14</definedName>
-    <definedName name="iCook_MPP" localSheetId="1">Tasks!$Y$2:$Y$4</definedName>
-    <definedName name="iCookMPP" localSheetId="1">Tasks!$Y$2:$Y$4</definedName>
+    <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$14</definedName>
+    <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$14</definedName>
+    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Version</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Changes</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>Removed hardcoded projectname and tasklist and owner name</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>Simplified inputs for user for ProjectNmae,TaskLists,OwnerName</t>
   </si>
   <si>
     <t>Sr.No</t>
@@ -118,301 +106,94 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>User Guide for Task Creation via Excel in Zoho</t>
+  </si>
+  <si>
+    <t>Headers Explanation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter the task name.</t>
+  </si>
+  <si>
+    <t>Task creation through Zoho automation tool</t>
+  </si>
+  <si>
+    <t>TaskDescription</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a brief task description.</t>
+  </si>
+  <si>
+    <t>Using API and Excel input...</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the project name.</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task list name.</t>
+  </si>
+  <si>
+    <t>Development Tasks</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a unique task ID.</t>
+  </si>
+  <si>
+    <t>Ownername</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task owner.</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-26-2024</t>
+  </si>
+  <si>
+    <t>Duedate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-27-2024</t>
+  </si>
+  <si>
+    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>(Optional) Specify the sprint name.</t>
+  </si>
+  <si>
+    <t>S7-SW-24</t>
+  </si>
+  <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t>ProjectNames</t>
-  </si>
-  <si>
-    <t>AssigneNames</t>
-  </si>
-  <si>
-    <t>Chandrayan 3 TaskList</t>
-  </si>
-  <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
-    <t>iCook(MPP)</t>
-  </si>
-  <si>
-    <t>iCookMPP</t>
-  </si>
-  <si>
-    <t>Dummy4</t>
-  </si>
-  <si>
-    <t>Dummy4 descripation</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>S7-SW-24</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>Srilakshminarayanan Gokul(SW)</t>
-  </si>
-  <si>
-    <t>Power calibration Analysis and Follow up tasks</t>
-  </si>
-  <si>
-    <t>Mpp Approval</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>Ashik S Manjunath</t>
-  </si>
-  <si>
-    <t>TPT -EPP-BPP Project Backlogs</t>
-  </si>
-  <si>
-    <t>Github admin settings</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>Yogesh V</t>
-  </si>
-  <si>
-    <t>C3_Branching</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Mahesh N</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>669359000013720358,669359000013720262</t>
-  </si>
-  <si>
-    <t>Everest(C2Gen2)</t>
-  </si>
-  <si>
-    <t>Balamurugan M</t>
-  </si>
-  <si>
-    <t>SW CTS Dev</t>
-  </si>
-  <si>
-    <t>System DB Info Front End</t>
-  </si>
-  <si>
-    <t>Sivan Perumal Pitchaiah</t>
-  </si>
-  <si>
-    <t>Calibrator-Proto</t>
-  </si>
-  <si>
-    <t>SW Backlogs - Auto CI testing</t>
-  </si>
-  <si>
-    <t>Pallavi M.H.</t>
-  </si>
-  <si>
-    <t>SW Calibration Tasks</t>
-  </si>
-  <si>
-    <t>Apply the CI testing scope and test coverage framework to all modules</t>
-  </si>
-  <si>
-    <t>Taranga Naik</t>
-  </si>
-  <si>
-    <t>SW UI - Refactor</t>
-  </si>
-  <si>
-    <t>Hemalatha</t>
-  </si>
-  <si>
-    <t>SW UI Backlogs</t>
-  </si>
-  <si>
-    <t>Zoho API Scripts</t>
-  </si>
-  <si>
-    <t>Guruprasad Thyagaraja Charya</t>
-  </si>
-  <si>
-    <t>SW Integration tasks</t>
-  </si>
-  <si>
-    <t>Backlogs</t>
-  </si>
-  <si>
-    <t>Manjunath(SW)</t>
-  </si>
-  <si>
-    <t>SW BE Development</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Balaji s.m</t>
-  </si>
-  <si>
-    <t>Spec Understanding</t>
-  </si>
-  <si>
-    <t>C3/C2 QA Automation Tasks</t>
-  </si>
-  <si>
-    <t>Jitendra Prabhu L</t>
-  </si>
-  <si>
-    <t>C2V Automation tool</t>
-  </si>
-  <si>
-    <t>Harish R (SW-UI)</t>
-  </si>
-  <si>
-    <t>Mark steev N</t>
-  </si>
-  <si>
-    <t>Nithish Vishal</t>
-  </si>
-  <si>
-    <t>DEEPAK P</t>
-  </si>
-  <si>
-    <t>Sandeep Manojkumar</t>
-  </si>
-  <si>
-    <t>JAVAKAR T</t>
-  </si>
-  <si>
-    <t>Karthick R</t>
-  </si>
-  <si>
-    <t>Somasundaram S</t>
-  </si>
-  <si>
-    <t>Sai Trinadh Pavuluri</t>
-  </si>
-  <si>
-    <t>Sudharsanan</t>
-  </si>
-  <si>
-    <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
-    <t>Hari Sundar</t>
-  </si>
-  <si>
-    <t>Saksham (SW-UI)</t>
-  </si>
-  <si>
-    <t>Karmukilan KT</t>
-  </si>
-  <si>
-    <t>Madankumar K</t>
-  </si>
-  <si>
-    <t>Ramanaa S</t>
-  </si>
-  <si>
-    <t>Chandra Shekar R</t>
-  </si>
-  <si>
-    <t>Addanki Krishnaprasad</t>
-  </si>
-  <si>
-    <t>User Guide for Task Creation via Excel in Zoho</t>
-  </si>
-  <si>
-    <t>Headers Explanation</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter the task name.</t>
-  </si>
-  <si>
-    <t>Task creation through Zoho automation tool</t>
-  </si>
-  <si>
-    <t>TaskDescription</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a brief task description.</t>
-  </si>
-  <si>
-    <t>Using API and Excel input...</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the project name.</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task list name.</t>
-  </si>
-  <si>
-    <t>Development Tasks</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a unique task ID.</t>
-  </si>
-  <si>
-    <t>Ownername</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task owner.</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-26-2024</t>
-  </si>
-  <si>
-    <t>Duedate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-27-2024</t>
-  </si>
-  <si>
-    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
-  </si>
-  <si>
-    <t>(Optional) Specify the sprint name.</t>
   </si>
   <si>
     <t>(Optional) Add any relevant tags.</t>
@@ -443,7 +224,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>red</t>
+      <t>green</t>
     </r>
     <r>
       <rPr>
@@ -531,6 +312,195 @@
       <t xml:space="preserve"> and can be left blank if not applicable.</t>
     </r>
   </si>
+  <si>
+    <t>ProjectNames</t>
+  </si>
+  <si>
+    <t>AssigneNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandrayan 3 </t>
+  </si>
+  <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>iCookMPP</t>
+  </si>
+  <si>
+    <t>Srilakshminarayanan Gokul(SW)</t>
+  </si>
+  <si>
+    <t>Power calibration Analysis and Follow up tasks</t>
+  </si>
+  <si>
+    <t>Mpp Approval</t>
+  </si>
+  <si>
+    <t>SW-Devops-Tools</t>
+  </si>
+  <si>
+    <t>Ashik S Manjunath</t>
+  </si>
+  <si>
+    <t>TPT -EPP-BPP Project Backlogs</t>
+  </si>
+  <si>
+    <t>Github admin settings</t>
+  </si>
+  <si>
+    <t>SW Development</t>
+  </si>
+  <si>
+    <t>Yogesh V</t>
+  </si>
+  <si>
+    <t>C3_Branching</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mahesh N</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
+    <t>Balamurugan M</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>System DB Info Front End</t>
+  </si>
+  <si>
+    <t>Sivan Perumal Pitchaiah</t>
+  </si>
+  <si>
+    <t>Calibrator-Proto</t>
+  </si>
+  <si>
+    <t>SW Backlogs - Auto CI testing</t>
+  </si>
+  <si>
+    <t>Pallavi M.H.</t>
+  </si>
+  <si>
+    <t>SW Calibration Tasks</t>
+  </si>
+  <si>
+    <t>Apply the CI testing scope and test coverage framework to all modules</t>
+  </si>
+  <si>
+    <t>Taranga Naik</t>
+  </si>
+  <si>
+    <t>SW UI - Refactor</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>SW UI Backlogs</t>
+  </si>
+  <si>
+    <t>Zoho API Scripts</t>
+  </si>
+  <si>
+    <t>Guruprasad Thyagaraja Charya</t>
+  </si>
+  <si>
+    <t>SW Integration tasks</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>Manjunath(SW)</t>
+  </si>
+  <si>
+    <t>SW BE Development</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Balaji s.m</t>
+  </si>
+  <si>
+    <t>Spec Understanding</t>
+  </si>
+  <si>
+    <t>C3/C2 QA Automation Tasks</t>
+  </si>
+  <si>
+    <t>Jitendra Prabhu L</t>
+  </si>
+  <si>
+    <t>C2V Automation tool</t>
+  </si>
+  <si>
+    <t>Harish R (SW-UI)</t>
+  </si>
+  <si>
+    <t>Mark steev N</t>
+  </si>
+  <si>
+    <t>Nithish Vishal</t>
+  </si>
+  <si>
+    <t>DEEPAK P</t>
+  </si>
+  <si>
+    <t>Sandeep Manojkumar</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>JAVAKAR T</t>
+  </si>
+  <si>
+    <t>Karthick R</t>
+  </si>
+  <si>
+    <t>Somasundaram S</t>
+  </si>
+  <si>
+    <t>Sai Trinadh Pavuluri</t>
+  </si>
+  <si>
+    <t>Sudharsanan</t>
+  </si>
+  <si>
+    <t>Pranay Nagpure Dilip</t>
+  </si>
+  <si>
+    <t>Hari Sundar</t>
+  </si>
+  <si>
+    <t>Saksham (SW-UI)</t>
+  </si>
+  <si>
+    <t>Karmukilan KT</t>
+  </si>
+  <si>
+    <t>Madankumar K</t>
+  </si>
+  <si>
+    <t>Ramanaa S</t>
+  </si>
+  <si>
+    <t>Chandra Shekar R</t>
+  </si>
+  <si>
+    <t>Addanki Krishnaprasad</t>
+  </si>
 </sst>
 </file>
 
@@ -553,6 +523,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -570,14 +548,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1231,13 +1201,18 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,24 +1221,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1591,7 +1561,7 @@
   <dimension ref="E6:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1611,47 +1581,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="5:7">
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="20">
-        <v>45562</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="5:7">
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
-        <v>45565</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="5:7">
+      <c r="E7" s="9"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="9"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1662,10 +1620,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1691,418 +1649,172 @@
     <col min="25" max="25" width="10.8095238095238" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:25">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:20">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="14">
-        <v>20</v>
-      </c>
-      <c r="J2" s="15">
-        <v>45422</v>
-      </c>
-      <c r="K2" s="15">
-        <v>45514</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="8:25">
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="8:25">
-      <c r="H4" s="14"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
+      <c r="N1"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="8:20">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="8:20">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="8:20">
+      <c r="H4" s="16"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="8:25">
-      <c r="H5" s="14"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="8:24">
-      <c r="H6" s="14"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="8:24">
-      <c r="H7" s="14"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="V7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="8:24">
-      <c r="H8" s="14"/>
-      <c r="V8" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" t="s">
-        <v>57</v>
-      </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="8:24">
-      <c r="H9" s="14"/>
-      <c r="V9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="8:24">
-      <c r="H10" s="14"/>
-      <c r="V10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="8:24">
-      <c r="H11" s="14"/>
-      <c r="V11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="X11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="8:24">
-      <c r="H12" s="14"/>
-      <c r="V12" t="s">
-        <v>67</v>
-      </c>
-      <c r="W12" t="s">
-        <v>68</v>
-      </c>
-      <c r="X12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="8:24">
-      <c r="H13" s="14"/>
-      <c r="V13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="8:24">
-      <c r="H14" s="14"/>
-      <c r="V14" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="8:22">
-      <c r="H15" s="14"/>
-      <c r="V15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="8:22">
-      <c r="H16" s="14"/>
-      <c r="V16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="8:22">
-      <c r="H17" s="14"/>
-      <c r="V17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="8:22">
-      <c r="H18" s="14"/>
-      <c r="V18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="8:22">
-      <c r="H19" s="14"/>
-      <c r="V19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="8:22">
-      <c r="H20" s="14"/>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="8:22">
-      <c r="H21" s="14"/>
-      <c r="V21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="8:22">
-      <c r="H22" s="14"/>
-      <c r="V22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="8:22">
-      <c r="H23" s="14"/>
-      <c r="V23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="8:22">
-      <c r="H24" s="14"/>
-      <c r="V24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="8:22">
-      <c r="H25" s="14"/>
-      <c r="V25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="8:22">
-      <c r="H26" s="14"/>
-      <c r="V26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="8:22">
-      <c r="H27" s="14"/>
-      <c r="V27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="8:22">
-      <c r="H28" s="14"/>
-      <c r="V28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="8:22">
-      <c r="H29" s="14"/>
-      <c r="V29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="8:22">
-      <c r="H30" s="14"/>
-      <c r="V30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="8:22">
-      <c r="H31" s="14"/>
-      <c r="V31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="22:22">
-      <c r="V32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" t="s">
-        <v>92</v>
-      </c>
+      <c r="H5" s="16"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="8:20">
+      <c r="H6" s="16"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="8:20">
+      <c r="H7" s="16"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="8:23">
+      <c r="H11" s="16"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>$U$2:$U$6</formula1>
+      <formula1>Data!$A$2:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Task,SubTask"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>Data!$B$2:$B$33</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"Low,Medium,High"</formula1>
@@ -2113,7 +1825,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31">
       <formula1>INDIRECT(SUBSTITUTE(B3," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H31">
       <formula1>$V$2:$V$33</formula1>
     </dataValidation>
   </dataValidations>
@@ -2128,7 +1840,7 @@
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2140,168 +1852,168 @@
   </cols>
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
-      <c r="D3" s="1" t="s">
-        <v>93</v>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
-      <c r="E5" s="2" t="s">
-        <v>94</v>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>97</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>99</v>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>102</v>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="10">
+        <v>12345657</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="7">
-        <v>12345657</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>110</v>
+      <c r="G13" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>113</v>
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>116</v>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>120</v>
+      <c r="E18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
-      <c r="C22" s="2" t="s">
-        <v>121</v>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2311,4 +2023,305 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="62.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:4">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:4">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:4">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:4">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:4">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:4">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:2">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:2">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:2">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:2">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:2">
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:2">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>